--- a/doc/CookieClicker-Zeitplanung.xlsx
+++ b/doc/CookieClicker-Zeitplanung.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="DieseArbeitsmappe" showPivotChartFilter="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenox\Google Drive\1 Arbeit\1.2 Lehre CSS\1.2.2 Basislehrjahr\7 Projekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenox\Desktop\cookie-clicker-2.0\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6899C275-D8C2-46B7-A5A1-3D194FADEED3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3B51B5A1-C4C5-497C-8063-FFE2464158E4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1660,7 +1660,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2171,7 +2171,7 @@
   <dimension ref="A1:BJ43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="BK18" sqref="BK18"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3154,7 +3154,7 @@
       </c>
       <c r="D14" s="42">
         <f>SUM(D15:D17)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="31"/>
@@ -3227,7 +3227,7 @@
       </c>
       <c r="D15" s="83">
         <f>SUM(G15:BJ15)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E15" s="50"/>
       <c r="F15" s="89" t="s">
@@ -3238,7 +3238,9 @@
       <c r="I15" s="68">
         <v>2</v>
       </c>
-      <c r="J15" s="87"/>
+      <c r="J15" s="87">
+        <v>2</v>
+      </c>
       <c r="K15" s="55"/>
       <c r="L15" s="57"/>
       <c r="M15" s="58"/>
@@ -3522,7 +3524,9 @@
         <f>SUM(G19:BJ19)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="50"/>
+      <c r="E19" s="50">
+        <v>1</v>
+      </c>
       <c r="F19" s="51"/>
       <c r="G19" s="53"/>
       <c r="H19" s="54"/>
@@ -3595,7 +3599,9 @@
         <f t="shared" ref="D20:D30" si="0">SUM(G20:BJ20)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="50"/>
+      <c r="E20" s="50">
+        <v>1</v>
+      </c>
       <c r="F20" s="51"/>
       <c r="G20" s="59"/>
       <c r="H20" s="60"/>
@@ -3668,7 +3674,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="50"/>
+      <c r="E21" s="50">
+        <v>1</v>
+      </c>
       <c r="F21" s="52"/>
       <c r="G21" s="59"/>
       <c r="H21" s="60"/>
@@ -3741,7 +3749,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E22" s="50"/>
+      <c r="E22" s="50">
+        <v>1</v>
+      </c>
       <c r="F22" s="51"/>
       <c r="G22" s="59"/>
       <c r="H22" s="60"/>
@@ -3814,7 +3824,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="50"/>
+      <c r="E23" s="50">
+        <v>1</v>
+      </c>
       <c r="F23" s="51"/>
       <c r="G23" s="59"/>
       <c r="H23" s="60"/>
@@ -3887,7 +3899,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E24" s="50"/>
+      <c r="E24" s="50">
+        <v>1</v>
+      </c>
       <c r="F24" s="51"/>
       <c r="G24" s="59"/>
       <c r="H24" s="60"/>
@@ -3960,7 +3974,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E25" s="50"/>
+      <c r="E25" s="50">
+        <v>2</v>
+      </c>
       <c r="F25" s="51"/>
       <c r="G25" s="59"/>
       <c r="H25" s="60"/>
@@ -4033,7 +4049,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E26" s="50"/>
+      <c r="E26" s="50">
+        <v>2</v>
+      </c>
       <c r="F26" s="51"/>
       <c r="G26" s="59"/>
       <c r="H26" s="60"/>
@@ -4106,7 +4124,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="50"/>
+      <c r="E27" s="50">
+        <v>2</v>
+      </c>
       <c r="F27" s="51"/>
       <c r="G27" s="59"/>
       <c r="H27" s="60"/>
@@ -4179,7 +4199,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E28" s="50"/>
+      <c r="E28" s="50">
+        <v>3</v>
+      </c>
       <c r="F28" s="51"/>
       <c r="G28" s="59"/>
       <c r="H28" s="60"/>
@@ -4252,7 +4274,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E29" s="50"/>
+      <c r="E29" s="50">
+        <v>3</v>
+      </c>
       <c r="F29" s="51"/>
       <c r="G29" s="71"/>
       <c r="H29" s="72"/>
@@ -5259,7 +5283,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5277,7 +5301,7 @@
       </c>
       <c r="J43" s="39">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K43" s="39">
         <f t="shared" si="3"/>
@@ -5574,7 +5598,7 @@
       </c>
       <c r="D4" s="80">
         <f>Zeitplanung!D14</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E4" s="82"/>
       <c r="F4" s="81"/>

--- a/doc/CookieClicker-Zeitplanung.xlsx
+++ b/doc/CookieClicker-Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenox\Desktop\cookie-clicker-2.0\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3B51B5A1-C4C5-497C-8063-FFE2464158E4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A0216FC3-FE55-45A6-B3E5-5C5221E02BA4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,62 +62,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q22" authorId="1" shapeId="0" xr:uid="{49F754AB-6956-462A-8FBF-FEDFA8CE0111}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Besprechung Anforderungsanalyse-Dokument (mit Urs/Roger)
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R25" authorId="1" shapeId="0" xr:uid="{AFA05187-81F5-4199-9CB8-C5C4683D823F}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Besprechung Anforderungsanalyse-Dokument (mit Urs/Roger)
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W27" authorId="1" shapeId="0" xr:uid="{67D3EA2E-F93C-432E-8276-74C070843D6B}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Besprechung Anforderungsanalyse-Dokument (mit Urs/Roger)
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y29" authorId="1" shapeId="0" xr:uid="{3398CB24-1AA4-4507-895E-28D8E398F7E3}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Besprechung Anforderungsanalyse-Dokument (mit Urs/Roger)
-</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -278,31 +222,31 @@
     <t>-</t>
   </si>
   <si>
-    <t>Bei Programmstart soll ein GUI geöffnet werden</t>
-  </si>
-  <si>
-    <t>Auf Knopf drücken, der die Cookies erhöht.</t>
-  </si>
-  <si>
-    <t>Upgrades können gekauft werden</t>
-  </si>
-  <si>
-    <t>Die Upgrades sollen automatisch Cookies hinzufügen</t>
-  </si>
-  <si>
-    <t>Cookies pro Sekunde Counter anzeigen.</t>
-  </si>
-  <si>
-    <t>Spielstand als Konfigurationsdatei Abspeichern</t>
-  </si>
-  <si>
-    <t>Autom. Öffnen des letzten speicherstands bzw. Speicherung</t>
-  </si>
-  <si>
-    <t>Rangliste, der besten Spieler auf Noah's Webseite</t>
-  </si>
-  <si>
-    <t>Loginsystem, mit Spielständen auf einem Server/SQL</t>
+    <t>F.REQ.001 Cookies backen</t>
+  </si>
+  <si>
+    <t>F.REQ.002 Upgrades kaufen</t>
+  </si>
+  <si>
+    <t>F.REQ.003 Automatische Cookies durch Upgrades</t>
+  </si>
+  <si>
+    <t>F.REQ.004 Cookies/Sekunde anzeigen</t>
+  </si>
+  <si>
+    <t>F.REQ.005 Import/Export</t>
+  </si>
+  <si>
+    <t>F.REQ.009 Cloudspeicherung</t>
+  </si>
+  <si>
+    <t>F.REQ.006 Spielstand öffnen</t>
+  </si>
+  <si>
+    <t>F.REQ.007 Rangliste eintragen</t>
+  </si>
+  <si>
+    <t>F.REQ.008 Rangliste anzeigen (BLJ-Webseite)</t>
   </si>
 </sst>
 </file>
@@ -1147,7 +1091,7 @@
     </xf>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1446,10 +1390,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1660,10 +1600,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2170,8 +2110,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="BL27" sqref="BL27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2490,88 +2430,88 @@
     <row r="7" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="27"/>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="91"/>
+      <c r="D7" s="90"/>
       <c r="E7" s="28" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="92" t="s">
+      <c r="G7" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="92" t="s">
+      <c r="H7" s="91"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="O7" s="92"/>
-      <c r="P7" s="92"/>
-      <c r="Q7" s="92"/>
-      <c r="R7" s="92"/>
-      <c r="S7" s="92"/>
-      <c r="T7" s="93"/>
-      <c r="U7" s="92" t="s">
+      <c r="O7" s="91"/>
+      <c r="P7" s="91"/>
+      <c r="Q7" s="91"/>
+      <c r="R7" s="91"/>
+      <c r="S7" s="91"/>
+      <c r="T7" s="92"/>
+      <c r="U7" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="V7" s="92"/>
-      <c r="W7" s="92"/>
-      <c r="X7" s="92"/>
-      <c r="Y7" s="92"/>
-      <c r="Z7" s="92"/>
-      <c r="AA7" s="93"/>
-      <c r="AB7" s="94" t="s">
+      <c r="V7" s="91"/>
+      <c r="W7" s="91"/>
+      <c r="X7" s="91"/>
+      <c r="Y7" s="91"/>
+      <c r="Z7" s="91"/>
+      <c r="AA7" s="92"/>
+      <c r="AB7" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="AC7" s="92"/>
-      <c r="AD7" s="92"/>
-      <c r="AE7" s="92"/>
-      <c r="AF7" s="92"/>
-      <c r="AG7" s="92"/>
-      <c r="AH7" s="93"/>
-      <c r="AI7" s="92" t="s">
+      <c r="AC7" s="91"/>
+      <c r="AD7" s="91"/>
+      <c r="AE7" s="91"/>
+      <c r="AF7" s="91"/>
+      <c r="AG7" s="91"/>
+      <c r="AH7" s="92"/>
+      <c r="AI7" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="AJ7" s="92"/>
-      <c r="AK7" s="92"/>
-      <c r="AL7" s="92"/>
-      <c r="AM7" s="92"/>
-      <c r="AN7" s="92"/>
-      <c r="AO7" s="93"/>
-      <c r="AP7" s="94" t="s">
+      <c r="AJ7" s="91"/>
+      <c r="AK7" s="91"/>
+      <c r="AL7" s="91"/>
+      <c r="AM7" s="91"/>
+      <c r="AN7" s="91"/>
+      <c r="AO7" s="92"/>
+      <c r="AP7" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="AQ7" s="92"/>
-      <c r="AR7" s="92"/>
-      <c r="AS7" s="92"/>
-      <c r="AT7" s="92"/>
-      <c r="AU7" s="92"/>
-      <c r="AV7" s="93"/>
-      <c r="AW7" s="92" t="s">
+      <c r="AQ7" s="91"/>
+      <c r="AR7" s="91"/>
+      <c r="AS7" s="91"/>
+      <c r="AT7" s="91"/>
+      <c r="AU7" s="91"/>
+      <c r="AV7" s="92"/>
+      <c r="AW7" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="AX7" s="92"/>
-      <c r="AY7" s="92"/>
-      <c r="AZ7" s="92"/>
-      <c r="BA7" s="92"/>
-      <c r="BB7" s="92"/>
-      <c r="BC7" s="93"/>
-      <c r="BD7" s="94" t="s">
+      <c r="AX7" s="91"/>
+      <c r="AY7" s="91"/>
+      <c r="AZ7" s="91"/>
+      <c r="BA7" s="91"/>
+      <c r="BB7" s="91"/>
+      <c r="BC7" s="92"/>
+      <c r="BD7" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="BE7" s="92"/>
-      <c r="BF7" s="92"/>
-      <c r="BG7" s="92"/>
-      <c r="BH7" s="92"/>
-      <c r="BI7" s="92"/>
-      <c r="BJ7" s="95"/>
+      <c r="BE7" s="91"/>
+      <c r="BF7" s="91"/>
+      <c r="BG7" s="91"/>
+      <c r="BH7" s="91"/>
+      <c r="BI7" s="91"/>
+      <c r="BJ7" s="94"/>
     </row>
     <row r="8" spans="1:62" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
@@ -3154,7 +3094,7 @@
       </c>
       <c r="D14" s="42">
         <f>SUM(D15:D17)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="31"/>
@@ -3306,14 +3246,16 @@
       </c>
       <c r="D16" s="83">
         <f>SUM(G16:BJ16)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E16" s="50"/>
       <c r="F16" s="51"/>
       <c r="G16" s="59"/>
       <c r="H16" s="60"/>
       <c r="I16" s="55"/>
-      <c r="J16" s="63"/>
+      <c r="J16" s="63">
+        <v>2</v>
+      </c>
       <c r="K16" s="63"/>
       <c r="L16" s="57"/>
       <c r="M16" s="58"/>
@@ -3449,7 +3391,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3522,7 +3464,7 @@
       </c>
       <c r="D19" s="83">
         <f>SUM(G19:BJ19)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E19" s="50">
         <v>1</v>
@@ -3531,7 +3473,9 @@
       <c r="G19" s="53"/>
       <c r="H19" s="54"/>
       <c r="I19" s="55"/>
-      <c r="J19" s="63"/>
+      <c r="J19" s="63">
+        <v>4</v>
+      </c>
       <c r="K19" s="63"/>
       <c r="L19" s="57"/>
       <c r="M19" s="58"/>
@@ -3539,7 +3483,7 @@
       <c r="O19" s="54"/>
       <c r="P19" s="55"/>
       <c r="Q19" s="55"/>
-      <c r="R19" s="56"/>
+      <c r="R19" s="55"/>
       <c r="S19" s="57"/>
       <c r="T19" s="58"/>
       <c r="U19" s="53"/>
@@ -3612,7 +3556,7 @@
       <c r="M20" s="58"/>
       <c r="N20" s="59"/>
       <c r="O20" s="60"/>
-      <c r="P20" s="55"/>
+      <c r="P20" s="63"/>
       <c r="Q20" s="55"/>
       <c r="R20" s="56"/>
       <c r="S20" s="57"/>
@@ -3682,13 +3626,13 @@
       <c r="H21" s="60"/>
       <c r="I21" s="55"/>
       <c r="J21" s="55"/>
-      <c r="K21" s="63"/>
+      <c r="K21" s="56"/>
       <c r="L21" s="57"/>
       <c r="M21" s="58"/>
       <c r="N21" s="59"/>
       <c r="O21" s="60"/>
       <c r="P21" s="63"/>
-      <c r="Q21" s="55"/>
+      <c r="Q21" s="63"/>
       <c r="R21" s="56"/>
       <c r="S21" s="57"/>
       <c r="T21" s="58"/>
@@ -3762,9 +3706,9 @@
       <c r="M22" s="58"/>
       <c r="N22" s="59"/>
       <c r="O22" s="60"/>
-      <c r="P22" s="63"/>
-      <c r="Q22" s="87"/>
-      <c r="R22" s="56"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="63"/>
+      <c r="R22" s="63"/>
       <c r="S22" s="57"/>
       <c r="T22" s="58"/>
       <c r="U22" s="59"/>
@@ -3837,14 +3781,14 @@
       <c r="M23" s="58"/>
       <c r="N23" s="59"/>
       <c r="O23" s="60"/>
-      <c r="P23" s="63"/>
+      <c r="P23" s="56"/>
       <c r="Q23" s="63"/>
-      <c r="R23" s="56"/>
+      <c r="R23" s="63"/>
       <c r="S23" s="57"/>
       <c r="T23" s="58"/>
       <c r="U23" s="59"/>
       <c r="V23" s="60"/>
-      <c r="W23" s="61"/>
+      <c r="W23" s="56"/>
       <c r="X23" s="61"/>
       <c r="Y23" s="56"/>
       <c r="Z23" s="57"/>
@@ -3912,14 +3856,14 @@
       <c r="M24" s="58"/>
       <c r="N24" s="59"/>
       <c r="O24" s="60"/>
-      <c r="P24" s="63"/>
-      <c r="Q24" s="63"/>
-      <c r="R24" s="56"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="63"/>
       <c r="S24" s="57"/>
       <c r="T24" s="58"/>
       <c r="U24" s="59"/>
       <c r="V24" s="60"/>
-      <c r="W24" s="56"/>
+      <c r="W24" s="63"/>
       <c r="X24" s="56"/>
       <c r="Y24" s="56"/>
       <c r="Z24" s="57"/>
@@ -3988,15 +3932,15 @@
       <c r="N25" s="59"/>
       <c r="O25" s="60"/>
       <c r="P25" s="55"/>
-      <c r="Q25" s="63"/>
-      <c r="R25" s="87"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="56"/>
       <c r="S25" s="57"/>
       <c r="T25" s="58"/>
       <c r="U25" s="59"/>
       <c r="V25" s="60"/>
-      <c r="W25" s="90"/>
-      <c r="X25" s="56"/>
-      <c r="Y25" s="56"/>
+      <c r="W25" s="63"/>
+      <c r="X25" s="63"/>
+      <c r="Y25" s="63"/>
       <c r="Z25" s="57"/>
       <c r="AA25" s="58"/>
       <c r="AB25" s="59"/>
@@ -4040,7 +3984,7 @@
         <v>308</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C26" s="49">
         <v>10</v>
@@ -4064,14 +4008,14 @@
       <c r="O26" s="60"/>
       <c r="P26" s="55"/>
       <c r="Q26" s="55"/>
-      <c r="R26" s="63"/>
+      <c r="R26" s="56"/>
       <c r="S26" s="57"/>
       <c r="T26" s="58"/>
       <c r="U26" s="59"/>
       <c r="V26" s="60"/>
       <c r="W26" s="63"/>
-      <c r="X26" s="56"/>
-      <c r="Y26" s="56"/>
+      <c r="X26" s="63"/>
+      <c r="Y26" s="63"/>
       <c r="Z26" s="57"/>
       <c r="AA26" s="58"/>
       <c r="AB26" s="59"/>
@@ -4115,7 +4059,7 @@
         <v>309</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C27" s="49">
         <v>6</v>
@@ -4139,12 +4083,12 @@
       <c r="O27" s="60"/>
       <c r="P27" s="55"/>
       <c r="Q27" s="55"/>
-      <c r="R27" s="63"/>
+      <c r="R27" s="56"/>
       <c r="S27" s="57"/>
       <c r="T27" s="58"/>
       <c r="U27" s="59"/>
       <c r="V27" s="60"/>
-      <c r="W27" s="87"/>
+      <c r="W27" s="56"/>
       <c r="X27" s="56"/>
       <c r="Y27" s="56"/>
       <c r="Z27" s="57"/>
@@ -4190,7 +4134,7 @@
         <v>310</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C28" s="49">
         <v>8</v>
@@ -4219,9 +4163,9 @@
       <c r="T28" s="58"/>
       <c r="U28" s="59"/>
       <c r="V28" s="60"/>
-      <c r="W28" s="63"/>
-      <c r="X28" s="63"/>
-      <c r="Y28" s="63"/>
+      <c r="W28" s="56"/>
+      <c r="X28" s="56"/>
+      <c r="Y28" s="56"/>
       <c r="Z28" s="57"/>
       <c r="AA28" s="58"/>
       <c r="AB28" s="59"/>
@@ -4265,7 +4209,7 @@
         <v>311</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C29" s="49">
         <v>8</v>
@@ -4295,8 +4239,8 @@
       <c r="U29" s="71"/>
       <c r="V29" s="72"/>
       <c r="W29" s="55"/>
-      <c r="X29" s="63"/>
-      <c r="Y29" s="87"/>
+      <c r="X29" s="56"/>
+      <c r="Y29" s="56"/>
       <c r="Z29" s="57"/>
       <c r="AA29" s="58"/>
       <c r="AB29" s="71"/>
@@ -4511,7 +4455,7 @@
       <c r="U32" s="53"/>
       <c r="V32" s="54"/>
       <c r="W32" s="55"/>
-      <c r="X32" s="55"/>
+      <c r="X32" s="56"/>
       <c r="Y32" s="56"/>
       <c r="Z32" s="57"/>
       <c r="AA32" s="58"/>
@@ -4678,7 +4622,7 @@
       <c r="AP34" s="59"/>
       <c r="AQ34" s="60"/>
       <c r="AR34" s="63"/>
-      <c r="AS34" s="55"/>
+      <c r="AS34" s="63"/>
       <c r="AT34" s="55"/>
       <c r="AU34" s="57"/>
       <c r="AV34" s="58"/>
@@ -5283,7 +5227,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5301,7 +5245,7 @@
       </c>
       <c r="J43" s="39">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K43" s="39">
         <f t="shared" si="3"/>
@@ -5558,10 +5502,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="99"/>
+      <c r="B2" s="98"/>
       <c r="C2" s="79" t="s">
         <v>14</v>
       </c>
@@ -5570,11 +5514,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="96" t="str">
+      <c r="A3" s="95" t="str">
         <f>Zeitplanung!B9</f>
         <v>Administration, Planung</v>
       </c>
-      <c r="B3" s="97"/>
+      <c r="B3" s="96"/>
       <c r="C3" s="80">
         <f>Zeitplanung!C9</f>
         <v>6</v>
@@ -5587,45 +5531,45 @@
       <c r="F3" s="81"/>
     </row>
     <row r="4" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="96" t="str">
+      <c r="A4" s="95" t="str">
         <f>Zeitplanung!B14</f>
         <v>Analyse &amp; Design</v>
       </c>
-      <c r="B4" s="97"/>
+      <c r="B4" s="96"/>
       <c r="C4" s="80">
         <f>Zeitplanung!C14</f>
         <v>9</v>
       </c>
       <c r="D4" s="80">
         <f>Zeitplanung!D14</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E4" s="82"/>
       <c r="F4" s="81"/>
     </row>
     <row r="5" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="96" t="str">
+      <c r="A5" s="95" t="str">
         <f>Zeitplanung!B18</f>
         <v>Implementation</v>
       </c>
-      <c r="B5" s="97"/>
+      <c r="B5" s="96"/>
       <c r="C5" s="80">
         <f>Zeitplanung!C18</f>
         <v>62</v>
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E5" s="82"/>
       <c r="F5" s="81"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="96" t="str">
+      <c r="A6" s="95" t="str">
         <f>Zeitplanung!B31</f>
         <v>Testen</v>
       </c>
-      <c r="B6" s="97"/>
+      <c r="B6" s="96"/>
       <c r="C6" s="80">
         <f>Zeitplanung!C31</f>
         <v>8</v>
@@ -5637,11 +5581,11 @@
       <c r="F6" s="81"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="96" t="str">
+      <c r="A7" s="95" t="str">
         <f>Zeitplanung!B36</f>
         <v>Diverses</v>
       </c>
-      <c r="B7" s="97"/>
+      <c r="B7" s="96"/>
       <c r="C7" s="80">
         <f>Zeitplanung!C36</f>
         <v>0</v>
@@ -5653,11 +5597,11 @@
       <c r="F7" s="81"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="96" t="str">
+      <c r="A8" s="95" t="str">
         <f>Zeitplanung!B39</f>
         <v>Abschluss</v>
       </c>
-      <c r="B8" s="97"/>
+      <c r="B8" s="96"/>
       <c r="C8" s="80">
         <f>Zeitplanung!C39</f>
         <v>3</v>

--- a/doc/CookieClicker-Zeitplanung.xlsx
+++ b/doc/CookieClicker-Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenox\Desktop\cookie-clicker-2.0\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A0216FC3-FE55-45A6-B3E5-5C5221E02BA4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{507A3546-2999-4FD2-B9B1-2E6357C7ABD8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="62">
   <si>
     <t>Nr.</t>
   </si>
@@ -247,6 +247,12 @@
   </si>
   <si>
     <t>F.REQ.008 Rangliste anzeigen (BLJ-Webseite)</t>
+  </si>
+  <si>
+    <t>13.12.</t>
+  </si>
+  <si>
+    <t>19.12.</t>
   </si>
 </sst>
 </file>
@@ -1600,10 +1606,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2110,8 +2116,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="BL27" sqref="BL27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3094,7 +3100,7 @@
       </c>
       <c r="D14" s="42">
         <f>SUM(D15:D17)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="31"/>
@@ -3246,7 +3252,7 @@
       </c>
       <c r="D16" s="83">
         <f>SUM(G16:BJ16)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="50"/>
       <c r="F16" s="51"/>
@@ -3254,9 +3260,11 @@
       <c r="H16" s="60"/>
       <c r="I16" s="55"/>
       <c r="J16" s="63">
-        <v>2</v>
-      </c>
-      <c r="K16" s="63"/>
+        <v>1</v>
+      </c>
+      <c r="K16" s="63">
+        <v>0</v>
+      </c>
       <c r="L16" s="57"/>
       <c r="M16" s="58"/>
       <c r="N16" s="59"/>
@@ -3391,7 +3399,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3464,7 +3472,7 @@
       </c>
       <c r="D19" s="83">
         <f>SUM(G19:BJ19)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E19" s="50">
         <v>1</v>
@@ -3474,9 +3482,11 @@
       <c r="H19" s="54"/>
       <c r="I19" s="55"/>
       <c r="J19" s="63">
-        <v>4</v>
-      </c>
-      <c r="K19" s="63"/>
+        <v>2</v>
+      </c>
+      <c r="K19" s="63">
+        <v>0</v>
+      </c>
       <c r="L19" s="57"/>
       <c r="M19" s="58"/>
       <c r="N19" s="53"/>
@@ -3541,7 +3551,7 @@
       </c>
       <c r="D20" s="83">
         <f t="shared" ref="D20:D30" si="0">SUM(G20:BJ20)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E20" s="50">
         <v>1</v>
@@ -3551,12 +3561,14 @@
       <c r="H20" s="60"/>
       <c r="I20" s="55"/>
       <c r="J20" s="55"/>
-      <c r="K20" s="63"/>
+      <c r="K20" s="63">
+        <v>2</v>
+      </c>
       <c r="L20" s="57"/>
       <c r="M20" s="58"/>
       <c r="N20" s="59"/>
       <c r="O20" s="60"/>
-      <c r="P20" s="63"/>
+      <c r="P20" s="55"/>
       <c r="Q20" s="55"/>
       <c r="R20" s="56"/>
       <c r="S20" s="57"/>
@@ -3616,23 +3628,31 @@
       </c>
       <c r="D21" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E21" s="50">
         <v>1</v>
       </c>
-      <c r="F21" s="52"/>
+      <c r="F21" s="89" t="s">
+        <v>60</v>
+      </c>
       <c r="G21" s="59"/>
       <c r="H21" s="60"/>
       <c r="I21" s="55"/>
       <c r="J21" s="55"/>
-      <c r="K21" s="56"/>
+      <c r="K21" s="63">
+        <v>2</v>
+      </c>
       <c r="L21" s="57"/>
       <c r="M21" s="58"/>
       <c r="N21" s="59"/>
       <c r="O21" s="60"/>
-      <c r="P21" s="63"/>
-      <c r="Q21" s="63"/>
+      <c r="P21" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="87">
+        <v>0</v>
+      </c>
       <c r="R21" s="56"/>
       <c r="S21" s="57"/>
       <c r="T21" s="58"/>
@@ -3706,7 +3726,7 @@
       <c r="M22" s="58"/>
       <c r="N22" s="59"/>
       <c r="O22" s="60"/>
-      <c r="P22" s="56"/>
+      <c r="P22" s="63"/>
       <c r="Q22" s="63"/>
       <c r="R22" s="63"/>
       <c r="S22" s="57"/>
@@ -3771,7 +3791,9 @@
       <c r="E23" s="50">
         <v>1</v>
       </c>
-      <c r="F23" s="51"/>
+      <c r="F23" s="89" t="s">
+        <v>61</v>
+      </c>
       <c r="G23" s="59"/>
       <c r="H23" s="60"/>
       <c r="I23" s="61"/>
@@ -3788,7 +3810,7 @@
       <c r="T23" s="58"/>
       <c r="U23" s="59"/>
       <c r="V23" s="60"/>
-      <c r="W23" s="56"/>
+      <c r="W23" s="87"/>
       <c r="X23" s="61"/>
       <c r="Y23" s="56"/>
       <c r="Z23" s="57"/>
@@ -5227,7 +5249,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5245,11 +5267,11 @@
       </c>
       <c r="J43" s="39">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L43" s="39">
         <f t="shared" si="3"/>
@@ -5542,7 +5564,7 @@
       </c>
       <c r="D4" s="80">
         <f>Zeitplanung!D14</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="82"/>
       <c r="F4" s="81"/>
@@ -5559,7 +5581,7 @@
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E5" s="82"/>
       <c r="F5" s="81"/>

--- a/doc/CookieClicker-Zeitplanung.xlsx
+++ b/doc/CookieClicker-Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenox\Desktop\cookie-clicker-2.0\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{507A3546-2999-4FD2-B9B1-2E6357C7ABD8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A79A5F4B-363A-4745-9CA7-E45383A78716}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1603,13 +1603,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2116,8 +2116,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AJ5" sqref="AJ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2718,7 +2718,7 @@
       </c>
       <c r="D9" s="42">
         <f>SUM(D10:D13)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="31"/>
@@ -2950,7 +2950,7 @@
       </c>
       <c r="D12" s="83">
         <f>SUM(G12:BJ12)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12" s="50">
         <v>1</v>
@@ -2960,7 +2960,9 @@
       <c r="H12" s="60"/>
       <c r="I12" s="61"/>
       <c r="J12" s="61"/>
-      <c r="K12" s="63"/>
+      <c r="K12" s="63">
+        <v>2</v>
+      </c>
       <c r="L12" s="57"/>
       <c r="M12" s="58"/>
       <c r="N12" s="59"/>
@@ -3399,7 +3401,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3551,7 +3553,7 @@
       </c>
       <c r="D20" s="83">
         <f t="shared" ref="D20:D30" si="0">SUM(G20:BJ20)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E20" s="50">
         <v>1</v>
@@ -3562,7 +3564,7 @@
       <c r="I20" s="55"/>
       <c r="J20" s="55"/>
       <c r="K20" s="63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20" s="57"/>
       <c r="M20" s="58"/>
@@ -3628,7 +3630,7 @@
       </c>
       <c r="D21" s="83">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21" s="50">
         <v>1</v>
@@ -3641,7 +3643,7 @@
       <c r="I21" s="55"/>
       <c r="J21" s="55"/>
       <c r="K21" s="63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21" s="57"/>
       <c r="M21" s="58"/>
@@ -5249,7 +5251,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5271,7 +5273,7 @@
       </c>
       <c r="K43" s="39">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L43" s="39">
         <f t="shared" si="3"/>
@@ -5547,7 +5549,7 @@
       </c>
       <c r="D3" s="80">
         <f>Zeitplanung!D9</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3" s="82"/>
       <c r="F3" s="81"/>
@@ -5581,7 +5583,7 @@
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5" s="82"/>
       <c r="F5" s="81"/>

--- a/doc/CookieClicker-Zeitplanung.xlsx
+++ b/doc/CookieClicker-Zeitplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenox\Desktop\cookie-clicker-2.0\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A79A5F4B-363A-4745-9CA7-E45383A78716}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{47111482-BC89-44B0-8B4F-B49592224ED7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -1609,7 +1609,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2116,22 +2116,22 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AJ5" sqref="AJ5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="31.875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="5.25" style="5" customWidth="1"/>
-    <col min="4" max="4" width="5.25" style="13" customWidth="1"/>
-    <col min="5" max="6" width="5.25" style="5" customWidth="1"/>
-    <col min="7" max="62" width="2.25" style="5" customWidth="1"/>
+    <col min="1" max="1" width="3.59765625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="31.8984375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="5.19921875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="5.19921875" style="13" customWidth="1"/>
+    <col min="5" max="6" width="5.19921875" style="5" customWidth="1"/>
+    <col min="7" max="62" width="2.19921875" style="5" customWidth="1"/>
     <col min="63" max="16384" width="12.5" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:62" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>16</v>
       </c>
@@ -2165,7 +2165,7 @@
       <c r="AC1" s="4"/>
       <c r="AD1" s="4"/>
     </row>
-    <row r="2" spans="1:62" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:62" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -2229,7 +2229,7 @@
       <c r="BI2" s="6"/>
       <c r="BJ2" s="6"/>
     </row>
-    <row r="3" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2295,7 +2295,7 @@
       <c r="BI3" s="6"/>
       <c r="BJ3" s="6"/>
     </row>
-    <row r="4" spans="1:62" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:62" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -2359,7 +2359,7 @@
       <c r="BI4" s="6"/>
       <c r="BJ4" s="6"/>
     </row>
-    <row r="5" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -2425,7 +2425,7 @@
       <c r="BI5" s="6"/>
       <c r="BJ5" s="6"/>
     </row>
-    <row r="6" spans="1:62" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:62" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -2433,7 +2433,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="27"/>
       <c r="C7" s="90" t="s">
@@ -2519,7 +2519,7 @@
       <c r="BI7" s="91"/>
       <c r="BJ7" s="94"/>
     </row>
-    <row r="8" spans="1:62" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:62" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>0</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30">
         <v>10</v>
       </c>
@@ -2779,7 +2779,7 @@
       <c r="BI9" s="74"/>
       <c r="BJ9" s="78"/>
     </row>
-    <row r="10" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>101</v>
       </c>
@@ -2855,7 +2855,7 @@
       <c r="BI10" s="57"/>
       <c r="BJ10" s="58"/>
     </row>
-    <row r="11" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>102</v>
       </c>
@@ -2938,7 +2938,7 @@
       <c r="BI11" s="57"/>
       <c r="BJ11" s="58"/>
     </row>
-    <row r="12" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>103</v>
       </c>
@@ -3015,7 +3015,7 @@
       <c r="BI12" s="57"/>
       <c r="BJ12" s="58"/>
     </row>
-    <row r="13" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>104</v>
       </c>
@@ -3089,7 +3089,7 @@
       <c r="BI13" s="66"/>
       <c r="BJ13" s="67"/>
     </row>
-    <row r="14" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="30">
         <v>20</v>
       </c>
@@ -3163,7 +3163,7 @@
       <c r="BI14" s="74"/>
       <c r="BJ14" s="78"/>
     </row>
-    <row r="15" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>201</v>
       </c>
@@ -3242,7 +3242,7 @@
       <c r="BI15" s="57"/>
       <c r="BJ15" s="58"/>
     </row>
-    <row r="16" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>202</v>
       </c>
@@ -3319,7 +3319,7 @@
       <c r="BI16" s="57"/>
       <c r="BJ16" s="58"/>
     </row>
-    <row r="17" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>203</v>
       </c>
@@ -3388,7 +3388,7 @@
       <c r="BI17" s="57"/>
       <c r="BJ17" s="58"/>
     </row>
-    <row r="18" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="30">
         <v>30</v>
       </c>
@@ -3401,7 +3401,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3462,7 +3462,7 @@
       <c r="BI18" s="74"/>
       <c r="BJ18" s="78"/>
     </row>
-    <row r="19" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>301</v>
       </c>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="D19" s="83">
         <f>SUM(G19:BJ19)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" s="50">
         <v>1</v>
@@ -3484,7 +3484,7 @@
       <c r="H19" s="54"/>
       <c r="I19" s="55"/>
       <c r="J19" s="63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K19" s="63">
         <v>0</v>
@@ -3541,7 +3541,7 @@
       <c r="BI19" s="57"/>
       <c r="BJ19" s="58"/>
     </row>
-    <row r="20" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>302</v>
       </c>
@@ -3553,7 +3553,7 @@
       </c>
       <c r="D20" s="83">
         <f t="shared" ref="D20:D30" si="0">SUM(G20:BJ20)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E20" s="50">
         <v>1</v>
@@ -3570,7 +3570,9 @@
       <c r="M20" s="58"/>
       <c r="N20" s="59"/>
       <c r="O20" s="60"/>
-      <c r="P20" s="55"/>
+      <c r="P20" s="55">
+        <v>1</v>
+      </c>
       <c r="Q20" s="55"/>
       <c r="R20" s="56"/>
       <c r="S20" s="57"/>
@@ -3618,7 +3620,7 @@
       <c r="BI20" s="57"/>
       <c r="BJ20" s="58"/>
     </row>
-    <row r="21" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>303</v>
       </c>
@@ -3630,7 +3632,7 @@
       </c>
       <c r="D21" s="83">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E21" s="50">
         <v>1</v>
@@ -3650,7 +3652,7 @@
       <c r="N21" s="59"/>
       <c r="O21" s="60"/>
       <c r="P21" s="63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="87">
         <v>0</v>
@@ -3701,7 +3703,7 @@
       <c r="BI21" s="57"/>
       <c r="BJ21" s="58"/>
     </row>
-    <row r="22" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>304</v>
       </c>
@@ -3713,7 +3715,7 @@
       </c>
       <c r="D22" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E22" s="50">
         <v>1</v>
@@ -3728,7 +3730,9 @@
       <c r="M22" s="58"/>
       <c r="N22" s="59"/>
       <c r="O22" s="60"/>
-      <c r="P22" s="63"/>
+      <c r="P22" s="63">
+        <v>4</v>
+      </c>
       <c r="Q22" s="63"/>
       <c r="R22" s="63"/>
       <c r="S22" s="57"/>
@@ -3776,7 +3780,7 @@
       <c r="BI22" s="57"/>
       <c r="BJ22" s="58"/>
     </row>
-    <row r="23" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>305</v>
       </c>
@@ -3853,7 +3857,7 @@
       <c r="BI23" s="57"/>
       <c r="BJ23" s="58"/>
     </row>
-    <row r="24" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>306</v>
       </c>
@@ -3928,7 +3932,7 @@
       <c r="BI24" s="57"/>
       <c r="BJ24" s="58"/>
     </row>
-    <row r="25" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>307</v>
       </c>
@@ -4003,7 +4007,7 @@
       <c r="BI25" s="57"/>
       <c r="BJ25" s="58"/>
     </row>
-    <row r="26" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>308</v>
       </c>
@@ -4078,7 +4082,7 @@
       <c r="BI26" s="57"/>
       <c r="BJ26" s="58"/>
     </row>
-    <row r="27" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>309</v>
       </c>
@@ -4153,7 +4157,7 @@
       <c r="BI27" s="57"/>
       <c r="BJ27" s="58"/>
     </row>
-    <row r="28" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>310</v>
       </c>
@@ -4228,7 +4232,7 @@
       <c r="BI28" s="57"/>
       <c r="BJ28" s="58"/>
     </row>
-    <row r="29" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>311</v>
       </c>
@@ -4303,7 +4307,7 @@
       <c r="BI29" s="57"/>
       <c r="BJ29" s="58"/>
     </row>
-    <row r="30" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <v>312</v>
       </c>
@@ -4372,7 +4376,7 @@
       <c r="BI30" s="57"/>
       <c r="BJ30" s="58"/>
     </row>
-    <row r="31" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30">
         <v>40</v>
       </c>
@@ -4446,7 +4450,7 @@
       <c r="BI31" s="74"/>
       <c r="BJ31" s="78"/>
     </row>
-    <row r="32" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>401</v>
       </c>
@@ -4519,7 +4523,7 @@
       <c r="BI32" s="57"/>
       <c r="BJ32" s="58"/>
     </row>
-    <row r="33" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
         <v>402</v>
       </c>
@@ -4592,7 +4596,7 @@
       <c r="BI33" s="57"/>
       <c r="BJ33" s="58"/>
     </row>
-    <row r="34" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
         <v>403</v>
       </c>
@@ -4665,7 +4669,7 @@
       <c r="BI34" s="57"/>
       <c r="BJ34" s="58"/>
     </row>
-    <row r="35" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
         <v>404</v>
       </c>
@@ -4734,7 +4738,7 @@
       <c r="BI35" s="57"/>
       <c r="BJ35" s="58"/>
     </row>
-    <row r="36" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="30">
         <v>50</v>
       </c>
@@ -4808,7 +4812,7 @@
       <c r="BI36" s="74"/>
       <c r="BJ36" s="78"/>
     </row>
-    <row r="37" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12">
         <v>501</v>
       </c>
@@ -4882,7 +4886,7 @@
       <c r="BI37" s="57"/>
       <c r="BJ37" s="58"/>
     </row>
-    <row r="38" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
         <v>502</v>
       </c>
@@ -4951,7 +4955,7 @@
       <c r="BI38" s="57"/>
       <c r="BJ38" s="58"/>
     </row>
-    <row r="39" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="30">
         <v>60</v>
       </c>
@@ -5025,7 +5029,7 @@
       <c r="BI39" s="74"/>
       <c r="BJ39" s="78"/>
     </row>
-    <row r="40" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12">
         <v>601</v>
       </c>
@@ -5098,7 +5102,7 @@
       <c r="BI40" s="57"/>
       <c r="BJ40" s="58"/>
     </row>
-    <row r="41" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12">
         <v>602</v>
       </c>
@@ -5171,7 +5175,7 @@
       <c r="BI41" s="57"/>
       <c r="BJ41" s="58"/>
     </row>
-    <row r="42" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12">
         <v>603</v>
       </c>
@@ -5240,7 +5244,7 @@
       <c r="BI42" s="57"/>
       <c r="BJ42" s="58"/>
     </row>
-    <row r="43" spans="1:62" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:62" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="35"/>
       <c r="B43" s="36" t="s">
         <v>6</v>
@@ -5251,7 +5255,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5269,7 +5273,7 @@
       </c>
       <c r="J43" s="39">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K43" s="39">
         <f t="shared" si="3"/>
@@ -5293,7 +5297,7 @@
       </c>
       <c r="P43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q43" s="39">
         <f t="shared" si="3"/>
@@ -5515,17 +5519,17 @@
       <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.09765625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:6" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="97" t="s">
         <v>13</v>
       </c>
@@ -5537,7 +5541,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="95" t="str">
         <f>Zeitplanung!B9</f>
         <v>Administration, Planung</v>
@@ -5554,7 +5558,7 @@
       <c r="E3" s="82"/>
       <c r="F3" s="81"/>
     </row>
-    <row r="4" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="95" t="str">
         <f>Zeitplanung!B14</f>
         <v>Analyse &amp; Design</v>
@@ -5571,7 +5575,7 @@
       <c r="E4" s="82"/>
       <c r="F4" s="81"/>
     </row>
-    <row r="5" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="95" t="str">
         <f>Zeitplanung!B18</f>
         <v>Implementation</v>
@@ -5583,12 +5587,12 @@
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E5" s="82"/>
       <c r="F5" s="81"/>
     </row>
-    <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="95" t="str">
         <f>Zeitplanung!B31</f>
         <v>Testen</v>
@@ -5604,7 +5608,7 @@
       </c>
       <c r="F6" s="81"/>
     </row>
-    <row r="7" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="95" t="str">
         <f>Zeitplanung!B36</f>
         <v>Diverses</v>
@@ -5620,7 +5624,7 @@
       </c>
       <c r="F7" s="81"/>
     </row>
-    <row r="8" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="95" t="str">
         <f>Zeitplanung!B39</f>
         <v>Abschluss</v>
@@ -5636,7 +5640,7 @@
       </c>
       <c r="F8" s="81"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:6" ht="15.6" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A7:B7"/>

--- a/doc/CookieClicker-Zeitplanung.xlsx
+++ b/doc/CookieClicker-Zeitplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenox\Desktop\cookie-clicker-2.0\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{47111482-BC89-44B0-8B4F-B49592224ED7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9DB535B0-3736-4B44-BDB0-A5695EC70B05}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8985" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -1535,7 +1535,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>62</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>8</c:v>
@@ -2116,22 +2116,22 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="31.8984375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="5.19921875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="5.19921875" style="13" customWidth="1"/>
-    <col min="5" max="6" width="5.19921875" style="5" customWidth="1"/>
-    <col min="7" max="62" width="2.19921875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="3.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="31.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="5.25" style="5" customWidth="1"/>
+    <col min="4" max="4" width="5.25" style="13" customWidth="1"/>
+    <col min="5" max="6" width="5.25" style="5" customWidth="1"/>
+    <col min="7" max="62" width="2.25" style="5" customWidth="1"/>
     <col min="63" max="16384" width="12.5" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:62" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>16</v>
       </c>
@@ -2165,7 +2165,7 @@
       <c r="AC1" s="4"/>
       <c r="AD1" s="4"/>
     </row>
-    <row r="2" spans="1:62" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:62" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -2229,7 +2229,7 @@
       <c r="BI2" s="6"/>
       <c r="BJ2" s="6"/>
     </row>
-    <row r="3" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2295,7 +2295,7 @@
       <c r="BI3" s="6"/>
       <c r="BJ3" s="6"/>
     </row>
-    <row r="4" spans="1:62" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:62" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -2359,7 +2359,7 @@
       <c r="BI4" s="6"/>
       <c r="BJ4" s="6"/>
     </row>
-    <row r="5" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -2425,7 +2425,7 @@
       <c r="BI5" s="6"/>
       <c r="BJ5" s="6"/>
     </row>
-    <row r="6" spans="1:62" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:62" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -2433,7 +2433,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="27"/>
       <c r="C7" s="90" t="s">
@@ -2519,7 +2519,7 @@
       <c r="BI7" s="91"/>
       <c r="BJ7" s="94"/>
     </row>
-    <row r="8" spans="1:62" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:62" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>0</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30">
         <v>10</v>
       </c>
@@ -2779,7 +2779,7 @@
       <c r="BI9" s="74"/>
       <c r="BJ9" s="78"/>
     </row>
-    <row r="10" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>101</v>
       </c>
@@ -2855,7 +2855,7 @@
       <c r="BI10" s="57"/>
       <c r="BJ10" s="58"/>
     </row>
-    <row r="11" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>102</v>
       </c>
@@ -2938,7 +2938,7 @@
       <c r="BI11" s="57"/>
       <c r="BJ11" s="58"/>
     </row>
-    <row r="12" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>103</v>
       </c>
@@ -3015,7 +3015,7 @@
       <c r="BI12" s="57"/>
       <c r="BJ12" s="58"/>
     </row>
-    <row r="13" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>104</v>
       </c>
@@ -3089,7 +3089,7 @@
       <c r="BI13" s="66"/>
       <c r="BJ13" s="67"/>
     </row>
-    <row r="14" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30">
         <v>20</v>
       </c>
@@ -3163,7 +3163,7 @@
       <c r="BI14" s="74"/>
       <c r="BJ14" s="78"/>
     </row>
-    <row r="15" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>201</v>
       </c>
@@ -3242,7 +3242,7 @@
       <c r="BI15" s="57"/>
       <c r="BJ15" s="58"/>
     </row>
-    <row r="16" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>202</v>
       </c>
@@ -3319,7 +3319,7 @@
       <c r="BI16" s="57"/>
       <c r="BJ16" s="58"/>
     </row>
-    <row r="17" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>203</v>
       </c>
@@ -3388,7 +3388,7 @@
       <c r="BI17" s="57"/>
       <c r="BJ17" s="58"/>
     </row>
-    <row r="18" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="30">
         <v>30</v>
       </c>
@@ -3397,7 +3397,7 @@
       </c>
       <c r="C18" s="41">
         <f>SUM(C19:C30)</f>
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
@@ -3462,7 +3462,7 @@
       <c r="BI18" s="74"/>
       <c r="BJ18" s="78"/>
     </row>
-    <row r="19" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>301</v>
       </c>
@@ -3541,7 +3541,7 @@
       <c r="BI19" s="57"/>
       <c r="BJ19" s="58"/>
     </row>
-    <row r="20" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>302</v>
       </c>
@@ -3620,7 +3620,7 @@
       <c r="BI20" s="57"/>
       <c r="BJ20" s="58"/>
     </row>
-    <row r="21" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>303</v>
       </c>
@@ -3703,7 +3703,7 @@
       <c r="BI21" s="57"/>
       <c r="BJ21" s="58"/>
     </row>
-    <row r="22" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>304</v>
       </c>
@@ -3780,7 +3780,7 @@
       <c r="BI22" s="57"/>
       <c r="BJ22" s="58"/>
     </row>
-    <row r="23" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>305</v>
       </c>
@@ -3857,7 +3857,7 @@
       <c r="BI23" s="57"/>
       <c r="BJ23" s="58"/>
     </row>
-    <row r="24" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>306</v>
       </c>
@@ -3932,7 +3932,7 @@
       <c r="BI24" s="57"/>
       <c r="BJ24" s="58"/>
     </row>
-    <row r="25" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>307</v>
       </c>
@@ -4007,7 +4007,7 @@
       <c r="BI25" s="57"/>
       <c r="BJ25" s="58"/>
     </row>
-    <row r="26" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>308</v>
       </c>
@@ -4082,7 +4082,7 @@
       <c r="BI26" s="57"/>
       <c r="BJ26" s="58"/>
     </row>
-    <row r="27" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>309</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>58</v>
       </c>
       <c r="C27" s="49">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D27" s="83">
         <f t="shared" si="0"/>
@@ -4157,7 +4157,7 @@
       <c r="BI27" s="57"/>
       <c r="BJ27" s="58"/>
     </row>
-    <row r="28" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>310</v>
       </c>
@@ -4165,7 +4165,7 @@
         <v>59</v>
       </c>
       <c r="C28" s="49">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D28" s="83">
         <f t="shared" si="0"/>
@@ -4232,7 +4232,7 @@
       <c r="BI28" s="57"/>
       <c r="BJ28" s="58"/>
     </row>
-    <row r="29" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>311</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>56</v>
       </c>
       <c r="C29" s="49">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D29" s="83">
         <f t="shared" si="0"/>
@@ -4307,7 +4307,7 @@
       <c r="BI29" s="57"/>
       <c r="BJ29" s="58"/>
     </row>
-    <row r="30" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>312</v>
       </c>
@@ -4376,7 +4376,7 @@
       <c r="BI30" s="57"/>
       <c r="BJ30" s="58"/>
     </row>
-    <row r="31" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="30">
         <v>40</v>
       </c>
@@ -4450,7 +4450,7 @@
       <c r="BI31" s="74"/>
       <c r="BJ31" s="78"/>
     </row>
-    <row r="32" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>401</v>
       </c>
@@ -4523,7 +4523,7 @@
       <c r="BI32" s="57"/>
       <c r="BJ32" s="58"/>
     </row>
-    <row r="33" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>402</v>
       </c>
@@ -4596,7 +4596,7 @@
       <c r="BI33" s="57"/>
       <c r="BJ33" s="58"/>
     </row>
-    <row r="34" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>403</v>
       </c>
@@ -4669,7 +4669,7 @@
       <c r="BI34" s="57"/>
       <c r="BJ34" s="58"/>
     </row>
-    <row r="35" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>404</v>
       </c>
@@ -4738,7 +4738,7 @@
       <c r="BI35" s="57"/>
       <c r="BJ35" s="58"/>
     </row>
-    <row r="36" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="30">
         <v>50</v>
       </c>
@@ -4812,7 +4812,7 @@
       <c r="BI36" s="74"/>
       <c r="BJ36" s="78"/>
     </row>
-    <row r="37" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>501</v>
       </c>
@@ -4886,7 +4886,7 @@
       <c r="BI37" s="57"/>
       <c r="BJ37" s="58"/>
     </row>
-    <row r="38" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>502</v>
       </c>
@@ -4955,7 +4955,7 @@
       <c r="BI38" s="57"/>
       <c r="BJ38" s="58"/>
     </row>
-    <row r="39" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="30">
         <v>60</v>
       </c>
@@ -5029,7 +5029,7 @@
       <c r="BI39" s="74"/>
       <c r="BJ39" s="78"/>
     </row>
-    <row r="40" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>601</v>
       </c>
@@ -5102,7 +5102,7 @@
       <c r="BI40" s="57"/>
       <c r="BJ40" s="58"/>
     </row>
-    <row r="41" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>602</v>
       </c>
@@ -5175,7 +5175,7 @@
       <c r="BI41" s="57"/>
       <c r="BJ41" s="58"/>
     </row>
-    <row r="42" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>603</v>
       </c>
@@ -5244,14 +5244,14 @@
       <c r="BI42" s="57"/>
       <c r="BJ42" s="58"/>
     </row>
-    <row r="43" spans="1:62" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:62" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="35"/>
       <c r="B43" s="36" t="s">
         <v>6</v>
       </c>
       <c r="C43" s="37">
         <f>C39+C36+C31+C18+C14+C9</f>
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
@@ -5519,17 +5519,17 @@
       <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.09765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:6" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="97" t="s">
         <v>13</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="95" t="str">
         <f>Zeitplanung!B9</f>
         <v>Administration, Planung</v>
@@ -5558,7 +5558,7 @@
       <c r="E3" s="82"/>
       <c r="F3" s="81"/>
     </row>
-    <row r="4" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="95" t="str">
         <f>Zeitplanung!B14</f>
         <v>Analyse &amp; Design</v>
@@ -5575,7 +5575,7 @@
       <c r="E4" s="82"/>
       <c r="F4" s="81"/>
     </row>
-    <row r="5" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="95" t="str">
         <f>Zeitplanung!B18</f>
         <v>Implementation</v>
@@ -5583,7 +5583,7 @@
       <c r="B5" s="96"/>
       <c r="C5" s="80">
         <f>Zeitplanung!C18</f>
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>
@@ -5592,7 +5592,7 @@
       <c r="E5" s="82"/>
       <c r="F5" s="81"/>
     </row>
-    <row r="6" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="95" t="str">
         <f>Zeitplanung!B31</f>
         <v>Testen</v>
@@ -5608,7 +5608,7 @@
       </c>
       <c r="F6" s="81"/>
     </row>
-    <row r="7" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="95" t="str">
         <f>Zeitplanung!B36</f>
         <v>Diverses</v>
@@ -5624,7 +5624,7 @@
       </c>
       <c r="F7" s="81"/>
     </row>
-    <row r="8" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="95" t="str">
         <f>Zeitplanung!B39</f>
         <v>Abschluss</v>
@@ -5640,7 +5640,7 @@
       </c>
       <c r="F8" s="81"/>
     </row>
-    <row r="9" spans="1:6" ht="15.6" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A7:B7"/>

--- a/doc/CookieClicker-Zeitplanung.xlsx
+++ b/doc/CookieClicker-Zeitplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenox\Desktop\cookie-clicker-2.0\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9DB535B0-3736-4B44-BDB0-A5695EC70B05}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7FD0A50B-6C22-44B5-8E6A-17FC754AC3F8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8985" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -2116,22 +2116,22 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="31.875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="5.25" style="5" customWidth="1"/>
-    <col min="4" max="4" width="5.25" style="13" customWidth="1"/>
-    <col min="5" max="6" width="5.25" style="5" customWidth="1"/>
-    <col min="7" max="62" width="2.25" style="5" customWidth="1"/>
+    <col min="1" max="1" width="3.59765625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="31.8984375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="5.19921875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="5.19921875" style="13" customWidth="1"/>
+    <col min="5" max="6" width="5.19921875" style="5" customWidth="1"/>
+    <col min="7" max="62" width="2.19921875" style="5" customWidth="1"/>
     <col min="63" max="16384" width="12.5" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:62" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>16</v>
       </c>
@@ -2165,7 +2165,7 @@
       <c r="AC1" s="4"/>
       <c r="AD1" s="4"/>
     </row>
-    <row r="2" spans="1:62" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:62" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -2229,7 +2229,7 @@
       <c r="BI2" s="6"/>
       <c r="BJ2" s="6"/>
     </row>
-    <row r="3" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2295,7 +2295,7 @@
       <c r="BI3" s="6"/>
       <c r="BJ3" s="6"/>
     </row>
-    <row r="4" spans="1:62" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:62" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -2359,7 +2359,7 @@
       <c r="BI4" s="6"/>
       <c r="BJ4" s="6"/>
     </row>
-    <row r="5" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -2425,7 +2425,7 @@
       <c r="BI5" s="6"/>
       <c r="BJ5" s="6"/>
     </row>
-    <row r="6" spans="1:62" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:62" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -2433,7 +2433,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="27"/>
       <c r="C7" s="90" t="s">
@@ -2519,7 +2519,7 @@
       <c r="BI7" s="91"/>
       <c r="BJ7" s="94"/>
     </row>
-    <row r="8" spans="1:62" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:62" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>0</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30">
         <v>10</v>
       </c>
@@ -2779,7 +2779,7 @@
       <c r="BI9" s="74"/>
       <c r="BJ9" s="78"/>
     </row>
-    <row r="10" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>101</v>
       </c>
@@ -2855,7 +2855,7 @@
       <c r="BI10" s="57"/>
       <c r="BJ10" s="58"/>
     </row>
-    <row r="11" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>102</v>
       </c>
@@ -2938,7 +2938,7 @@
       <c r="BI11" s="57"/>
       <c r="BJ11" s="58"/>
     </row>
-    <row r="12" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>103</v>
       </c>
@@ -3015,7 +3015,7 @@
       <c r="BI12" s="57"/>
       <c r="BJ12" s="58"/>
     </row>
-    <row r="13" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>104</v>
       </c>
@@ -3089,7 +3089,7 @@
       <c r="BI13" s="66"/>
       <c r="BJ13" s="67"/>
     </row>
-    <row r="14" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="30">
         <v>20</v>
       </c>
@@ -3163,7 +3163,7 @@
       <c r="BI14" s="74"/>
       <c r="BJ14" s="78"/>
     </row>
-    <row r="15" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>201</v>
       </c>
@@ -3242,7 +3242,7 @@
       <c r="BI15" s="57"/>
       <c r="BJ15" s="58"/>
     </row>
-    <row r="16" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>202</v>
       </c>
@@ -3319,7 +3319,7 @@
       <c r="BI16" s="57"/>
       <c r="BJ16" s="58"/>
     </row>
-    <row r="17" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>203</v>
       </c>
@@ -3388,7 +3388,7 @@
       <c r="BI17" s="57"/>
       <c r="BJ17" s="58"/>
     </row>
-    <row r="18" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="30">
         <v>30</v>
       </c>
@@ -3462,7 +3462,7 @@
       <c r="BI18" s="74"/>
       <c r="BJ18" s="78"/>
     </row>
-    <row r="19" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>301</v>
       </c>
@@ -3541,7 +3541,7 @@
       <c r="BI19" s="57"/>
       <c r="BJ19" s="58"/>
     </row>
-    <row r="20" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>302</v>
       </c>
@@ -3620,7 +3620,7 @@
       <c r="BI20" s="57"/>
       <c r="BJ20" s="58"/>
     </row>
-    <row r="21" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>303</v>
       </c>
@@ -3703,7 +3703,7 @@
       <c r="BI21" s="57"/>
       <c r="BJ21" s="58"/>
     </row>
-    <row r="22" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>304</v>
       </c>
@@ -3780,7 +3780,7 @@
       <c r="BI22" s="57"/>
       <c r="BJ22" s="58"/>
     </row>
-    <row r="23" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>305</v>
       </c>
@@ -3857,7 +3857,7 @@
       <c r="BI23" s="57"/>
       <c r="BJ23" s="58"/>
     </row>
-    <row r="24" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>306</v>
       </c>
@@ -3932,7 +3932,7 @@
       <c r="BI24" s="57"/>
       <c r="BJ24" s="58"/>
     </row>
-    <row r="25" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>307</v>
       </c>
@@ -4007,7 +4007,7 @@
       <c r="BI25" s="57"/>
       <c r="BJ25" s="58"/>
     </row>
-    <row r="26" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>308</v>
       </c>
@@ -4082,7 +4082,7 @@
       <c r="BI26" s="57"/>
       <c r="BJ26" s="58"/>
     </row>
-    <row r="27" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>309</v>
       </c>
@@ -4157,7 +4157,7 @@
       <c r="BI27" s="57"/>
       <c r="BJ27" s="58"/>
     </row>
-    <row r="28" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>310</v>
       </c>
@@ -4232,7 +4232,7 @@
       <c r="BI28" s="57"/>
       <c r="BJ28" s="58"/>
     </row>
-    <row r="29" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>311</v>
       </c>
@@ -4307,7 +4307,7 @@
       <c r="BI29" s="57"/>
       <c r="BJ29" s="58"/>
     </row>
-    <row r="30" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <v>312</v>
       </c>
@@ -4376,7 +4376,7 @@
       <c r="BI30" s="57"/>
       <c r="BJ30" s="58"/>
     </row>
-    <row r="31" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30">
         <v>40</v>
       </c>
@@ -4450,7 +4450,7 @@
       <c r="BI31" s="74"/>
       <c r="BJ31" s="78"/>
     </row>
-    <row r="32" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>401</v>
       </c>
@@ -4523,7 +4523,7 @@
       <c r="BI32" s="57"/>
       <c r="BJ32" s="58"/>
     </row>
-    <row r="33" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
         <v>402</v>
       </c>
@@ -4596,7 +4596,7 @@
       <c r="BI33" s="57"/>
       <c r="BJ33" s="58"/>
     </row>
-    <row r="34" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
         <v>403</v>
       </c>
@@ -4669,7 +4669,7 @@
       <c r="BI34" s="57"/>
       <c r="BJ34" s="58"/>
     </row>
-    <row r="35" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
         <v>404</v>
       </c>
@@ -4738,7 +4738,7 @@
       <c r="BI35" s="57"/>
       <c r="BJ35" s="58"/>
     </row>
-    <row r="36" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="30">
         <v>50</v>
       </c>
@@ -4812,7 +4812,7 @@
       <c r="BI36" s="74"/>
       <c r="BJ36" s="78"/>
     </row>
-    <row r="37" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12">
         <v>501</v>
       </c>
@@ -4886,7 +4886,7 @@
       <c r="BI37" s="57"/>
       <c r="BJ37" s="58"/>
     </row>
-    <row r="38" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
         <v>502</v>
       </c>
@@ -4955,7 +4955,7 @@
       <c r="BI38" s="57"/>
       <c r="BJ38" s="58"/>
     </row>
-    <row r="39" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="30">
         <v>60</v>
       </c>
@@ -5029,7 +5029,7 @@
       <c r="BI39" s="74"/>
       <c r="BJ39" s="78"/>
     </row>
-    <row r="40" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12">
         <v>601</v>
       </c>
@@ -5102,7 +5102,7 @@
       <c r="BI40" s="57"/>
       <c r="BJ40" s="58"/>
     </row>
-    <row r="41" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12">
         <v>602</v>
       </c>
@@ -5175,7 +5175,7 @@
       <c r="BI41" s="57"/>
       <c r="BJ41" s="58"/>
     </row>
-    <row r="42" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12">
         <v>603</v>
       </c>
@@ -5244,7 +5244,7 @@
       <c r="BI42" s="57"/>
       <c r="BJ42" s="58"/>
     </row>
-    <row r="43" spans="1:62" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:62" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="35"/>
       <c r="B43" s="36" t="s">
         <v>6</v>
@@ -5519,17 +5519,17 @@
       <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.09765625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:6" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="97" t="s">
         <v>13</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="95" t="str">
         <f>Zeitplanung!B9</f>
         <v>Administration, Planung</v>
@@ -5558,7 +5558,7 @@
       <c r="E3" s="82"/>
       <c r="F3" s="81"/>
     </row>
-    <row r="4" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="95" t="str">
         <f>Zeitplanung!B14</f>
         <v>Analyse &amp; Design</v>
@@ -5575,7 +5575,7 @@
       <c r="E4" s="82"/>
       <c r="F4" s="81"/>
     </row>
-    <row r="5" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="95" t="str">
         <f>Zeitplanung!B18</f>
         <v>Implementation</v>
@@ -5592,7 +5592,7 @@
       <c r="E5" s="82"/>
       <c r="F5" s="81"/>
     </row>
-    <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="95" t="str">
         <f>Zeitplanung!B31</f>
         <v>Testen</v>
@@ -5608,7 +5608,7 @@
       </c>
       <c r="F6" s="81"/>
     </row>
-    <row r="7" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="95" t="str">
         <f>Zeitplanung!B36</f>
         <v>Diverses</v>
@@ -5624,7 +5624,7 @@
       </c>
       <c r="F7" s="81"/>
     </row>
-    <row r="8" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="95" t="str">
         <f>Zeitplanung!B39</f>
         <v>Abschluss</v>
@@ -5640,7 +5640,7 @@
       </c>
       <c r="F8" s="81"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:6" ht="15.6" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A7:B7"/>

--- a/doc/CookieClicker-Zeitplanung.xlsx
+++ b/doc/CookieClicker-Zeitplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenox\Desktop\cookie-clicker-2.0\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7FD0A50B-6C22-44B5-8E6A-17FC754AC3F8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4170560F-5A76-4A5A-94D2-9000A5EF1101}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8985" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -1603,13 +1603,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2116,22 +2116,22 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="31.8984375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="5.19921875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="5.19921875" style="13" customWidth="1"/>
-    <col min="5" max="6" width="5.19921875" style="5" customWidth="1"/>
-    <col min="7" max="62" width="2.19921875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="3.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="31.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="5.25" style="5" customWidth="1"/>
+    <col min="4" max="4" width="5.25" style="13" customWidth="1"/>
+    <col min="5" max="6" width="5.25" style="5" customWidth="1"/>
+    <col min="7" max="62" width="2.25" style="5" customWidth="1"/>
     <col min="63" max="16384" width="12.5" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:62" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>16</v>
       </c>
@@ -2165,7 +2165,7 @@
       <c r="AC1" s="4"/>
       <c r="AD1" s="4"/>
     </row>
-    <row r="2" spans="1:62" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:62" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -2229,7 +2229,7 @@
       <c r="BI2" s="6"/>
       <c r="BJ2" s="6"/>
     </row>
-    <row r="3" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2295,7 +2295,7 @@
       <c r="BI3" s="6"/>
       <c r="BJ3" s="6"/>
     </row>
-    <row r="4" spans="1:62" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:62" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -2359,7 +2359,7 @@
       <c r="BI4" s="6"/>
       <c r="BJ4" s="6"/>
     </row>
-    <row r="5" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -2425,7 +2425,7 @@
       <c r="BI5" s="6"/>
       <c r="BJ5" s="6"/>
     </row>
-    <row r="6" spans="1:62" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:62" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -2433,7 +2433,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="27"/>
       <c r="C7" s="90" t="s">
@@ -2519,7 +2519,7 @@
       <c r="BI7" s="91"/>
       <c r="BJ7" s="94"/>
     </row>
-    <row r="8" spans="1:62" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:62" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>0</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30">
         <v>10</v>
       </c>
@@ -2718,7 +2718,7 @@
       </c>
       <c r="D9" s="42">
         <f>SUM(D10:D13)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="31"/>
@@ -2779,7 +2779,7 @@
       <c r="BI9" s="74"/>
       <c r="BJ9" s="78"/>
     </row>
-    <row r="10" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>101</v>
       </c>
@@ -2855,7 +2855,7 @@
       <c r="BI10" s="57"/>
       <c r="BJ10" s="58"/>
     </row>
-    <row r="11" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>102</v>
       </c>
@@ -2938,7 +2938,7 @@
       <c r="BI11" s="57"/>
       <c r="BJ11" s="58"/>
     </row>
-    <row r="12" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>103</v>
       </c>
@@ -2950,7 +2950,7 @@
       </c>
       <c r="D12" s="83">
         <f>SUM(G12:BJ12)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" s="50">
         <v>1</v>
@@ -2969,7 +2969,9 @@
       <c r="O12" s="60"/>
       <c r="P12" s="61"/>
       <c r="Q12" s="61"/>
-      <c r="R12" s="63"/>
+      <c r="R12" s="63">
+        <v>1</v>
+      </c>
       <c r="S12" s="57"/>
       <c r="T12" s="58"/>
       <c r="U12" s="59"/>
@@ -3015,7 +3017,7 @@
       <c r="BI12" s="57"/>
       <c r="BJ12" s="58"/>
     </row>
-    <row r="13" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>104</v>
       </c>
@@ -3089,7 +3091,7 @@
       <c r="BI13" s="66"/>
       <c r="BJ13" s="67"/>
     </row>
-    <row r="14" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30">
         <v>20</v>
       </c>
@@ -3163,7 +3165,7 @@
       <c r="BI14" s="74"/>
       <c r="BJ14" s="78"/>
     </row>
-    <row r="15" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>201</v>
       </c>
@@ -3242,7 +3244,7 @@
       <c r="BI15" s="57"/>
       <c r="BJ15" s="58"/>
     </row>
-    <row r="16" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>202</v>
       </c>
@@ -3319,7 +3321,7 @@
       <c r="BI16" s="57"/>
       <c r="BJ16" s="58"/>
     </row>
-    <row r="17" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>203</v>
       </c>
@@ -3388,7 +3390,7 @@
       <c r="BI17" s="57"/>
       <c r="BJ17" s="58"/>
     </row>
-    <row r="18" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="30">
         <v>30</v>
       </c>
@@ -3401,7 +3403,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3462,7 +3464,7 @@
       <c r="BI18" s="74"/>
       <c r="BJ18" s="78"/>
     </row>
-    <row r="19" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>301</v>
       </c>
@@ -3541,7 +3543,7 @@
       <c r="BI19" s="57"/>
       <c r="BJ19" s="58"/>
     </row>
-    <row r="20" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>302</v>
       </c>
@@ -3553,7 +3555,7 @@
       </c>
       <c r="D20" s="83">
         <f t="shared" ref="D20:D30" si="0">SUM(G20:BJ20)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E20" s="50">
         <v>1</v>
@@ -3573,7 +3575,9 @@
       <c r="P20" s="55">
         <v>1</v>
       </c>
-      <c r="Q20" s="55"/>
+      <c r="Q20" s="55">
+        <v>1</v>
+      </c>
       <c r="R20" s="56"/>
       <c r="S20" s="57"/>
       <c r="T20" s="58"/>
@@ -3620,7 +3624,7 @@
       <c r="BI20" s="57"/>
       <c r="BJ20" s="58"/>
     </row>
-    <row r="21" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>303</v>
       </c>
@@ -3703,7 +3707,7 @@
       <c r="BI21" s="57"/>
       <c r="BJ21" s="58"/>
     </row>
-    <row r="22" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>304</v>
       </c>
@@ -3715,7 +3719,7 @@
       </c>
       <c r="D22" s="83">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E22" s="50">
         <v>1</v>
@@ -3733,8 +3737,12 @@
       <c r="P22" s="63">
         <v>4</v>
       </c>
-      <c r="Q22" s="63"/>
-      <c r="R22" s="63"/>
+      <c r="Q22" s="63">
+        <v>5</v>
+      </c>
+      <c r="R22" s="63">
+        <v>1</v>
+      </c>
       <c r="S22" s="57"/>
       <c r="T22" s="58"/>
       <c r="U22" s="59"/>
@@ -3780,7 +3788,7 @@
       <c r="BI22" s="57"/>
       <c r="BJ22" s="58"/>
     </row>
-    <row r="23" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>305</v>
       </c>
@@ -3792,7 +3800,7 @@
       </c>
       <c r="D23" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E23" s="50">
         <v>1</v>
@@ -3810,13 +3818,19 @@
       <c r="N23" s="59"/>
       <c r="O23" s="60"/>
       <c r="P23" s="56"/>
-      <c r="Q23" s="63"/>
-      <c r="R23" s="63"/>
+      <c r="Q23" s="63">
+        <v>2</v>
+      </c>
+      <c r="R23" s="63">
+        <v>3</v>
+      </c>
       <c r="S23" s="57"/>
       <c r="T23" s="58"/>
       <c r="U23" s="59"/>
       <c r="V23" s="60"/>
-      <c r="W23" s="87"/>
+      <c r="W23" s="87">
+        <v>0</v>
+      </c>
       <c r="X23" s="61"/>
       <c r="Y23" s="56"/>
       <c r="Z23" s="57"/>
@@ -3857,7 +3871,7 @@
       <c r="BI23" s="57"/>
       <c r="BJ23" s="58"/>
     </row>
-    <row r="24" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>306</v>
       </c>
@@ -3869,7 +3883,7 @@
       </c>
       <c r="D24" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="50">
         <v>1</v>
@@ -3886,12 +3900,16 @@
       <c r="O24" s="60"/>
       <c r="P24" s="56"/>
       <c r="Q24" s="56"/>
-      <c r="R24" s="63"/>
+      <c r="R24" s="63">
+        <v>1</v>
+      </c>
       <c r="S24" s="57"/>
       <c r="T24" s="58"/>
       <c r="U24" s="59"/>
       <c r="V24" s="60"/>
-      <c r="W24" s="63"/>
+      <c r="W24" s="63">
+        <v>0</v>
+      </c>
       <c r="X24" s="56"/>
       <c r="Y24" s="56"/>
       <c r="Z24" s="57"/>
@@ -3932,7 +3950,7 @@
       <c r="BI24" s="57"/>
       <c r="BJ24" s="58"/>
     </row>
-    <row r="25" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>307</v>
       </c>
@@ -3944,7 +3962,7 @@
       </c>
       <c r="D25" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E25" s="50">
         <v>2</v>
@@ -3961,7 +3979,9 @@
       <c r="O25" s="60"/>
       <c r="P25" s="55"/>
       <c r="Q25" s="56"/>
-      <c r="R25" s="56"/>
+      <c r="R25" s="56">
+        <v>2</v>
+      </c>
       <c r="S25" s="57"/>
       <c r="T25" s="58"/>
       <c r="U25" s="59"/>
@@ -4007,7 +4027,7 @@
       <c r="BI25" s="57"/>
       <c r="BJ25" s="58"/>
     </row>
-    <row r="26" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>308</v>
       </c>
@@ -4082,7 +4102,7 @@
       <c r="BI26" s="57"/>
       <c r="BJ26" s="58"/>
     </row>
-    <row r="27" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>309</v>
       </c>
@@ -4157,7 +4177,7 @@
       <c r="BI27" s="57"/>
       <c r="BJ27" s="58"/>
     </row>
-    <row r="28" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>310</v>
       </c>
@@ -4232,7 +4252,7 @@
       <c r="BI28" s="57"/>
       <c r="BJ28" s="58"/>
     </row>
-    <row r="29" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>311</v>
       </c>
@@ -4307,7 +4327,7 @@
       <c r="BI29" s="57"/>
       <c r="BJ29" s="58"/>
     </row>
-    <row r="30" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>312</v>
       </c>
@@ -4376,7 +4396,7 @@
       <c r="BI30" s="57"/>
       <c r="BJ30" s="58"/>
     </row>
-    <row r="31" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="30">
         <v>40</v>
       </c>
@@ -4450,7 +4470,7 @@
       <c r="BI31" s="74"/>
       <c r="BJ31" s="78"/>
     </row>
-    <row r="32" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>401</v>
       </c>
@@ -4523,7 +4543,7 @@
       <c r="BI32" s="57"/>
       <c r="BJ32" s="58"/>
     </row>
-    <row r="33" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>402</v>
       </c>
@@ -4596,7 +4616,7 @@
       <c r="BI33" s="57"/>
       <c r="BJ33" s="58"/>
     </row>
-    <row r="34" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>403</v>
       </c>
@@ -4669,7 +4689,7 @@
       <c r="BI34" s="57"/>
       <c r="BJ34" s="58"/>
     </row>
-    <row r="35" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>404</v>
       </c>
@@ -4738,7 +4758,7 @@
       <c r="BI35" s="57"/>
       <c r="BJ35" s="58"/>
     </row>
-    <row r="36" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="30">
         <v>50</v>
       </c>
@@ -4812,7 +4832,7 @@
       <c r="BI36" s="74"/>
       <c r="BJ36" s="78"/>
     </row>
-    <row r="37" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>501</v>
       </c>
@@ -4886,7 +4906,7 @@
       <c r="BI37" s="57"/>
       <c r="BJ37" s="58"/>
     </row>
-    <row r="38" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>502</v>
       </c>
@@ -4955,7 +4975,7 @@
       <c r="BI38" s="57"/>
       <c r="BJ38" s="58"/>
     </row>
-    <row r="39" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="30">
         <v>60</v>
       </c>
@@ -5029,7 +5049,7 @@
       <c r="BI39" s="74"/>
       <c r="BJ39" s="78"/>
     </row>
-    <row r="40" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>601</v>
       </c>
@@ -5102,7 +5122,7 @@
       <c r="BI40" s="57"/>
       <c r="BJ40" s="58"/>
     </row>
-    <row r="41" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>602</v>
       </c>
@@ -5175,7 +5195,7 @@
       <c r="BI41" s="57"/>
       <c r="BJ41" s="58"/>
     </row>
-    <row r="42" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>603</v>
       </c>
@@ -5244,7 +5264,7 @@
       <c r="BI42" s="57"/>
       <c r="BJ42" s="58"/>
     </row>
-    <row r="43" spans="1:62" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:62" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="35"/>
       <c r="B43" s="36" t="s">
         <v>6</v>
@@ -5255,7 +5275,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5301,11 +5321,11 @@
       </c>
       <c r="Q43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S43" s="39">
         <f t="shared" si="3"/>
@@ -5519,17 +5539,17 @@
       <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.09765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:6" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="97" t="s">
         <v>13</v>
       </c>
@@ -5541,7 +5561,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="95" t="str">
         <f>Zeitplanung!B9</f>
         <v>Administration, Planung</v>
@@ -5553,12 +5573,12 @@
       </c>
       <c r="D3" s="80">
         <f>Zeitplanung!D9</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="82"/>
       <c r="F3" s="81"/>
     </row>
-    <row r="4" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="95" t="str">
         <f>Zeitplanung!B14</f>
         <v>Analyse &amp; Design</v>
@@ -5575,7 +5595,7 @@
       <c r="E4" s="82"/>
       <c r="F4" s="81"/>
     </row>
-    <row r="5" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="95" t="str">
         <f>Zeitplanung!B18</f>
         <v>Implementation</v>
@@ -5587,12 +5607,12 @@
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E5" s="82"/>
       <c r="F5" s="81"/>
     </row>
-    <row r="6" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="95" t="str">
         <f>Zeitplanung!B31</f>
         <v>Testen</v>
@@ -5608,7 +5628,7 @@
       </c>
       <c r="F6" s="81"/>
     </row>
-    <row r="7" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="95" t="str">
         <f>Zeitplanung!B36</f>
         <v>Diverses</v>
@@ -5624,7 +5644,7 @@
       </c>
       <c r="F7" s="81"/>
     </row>
-    <row r="8" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="95" t="str">
         <f>Zeitplanung!B39</f>
         <v>Abschluss</v>
@@ -5640,7 +5660,7 @@
       </c>
       <c r="F8" s="81"/>
     </row>
-    <row r="9" spans="1:6" ht="15.6" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A7:B7"/>

--- a/doc/CookieClicker-Zeitplanung.xlsx
+++ b/doc/CookieClicker-Zeitplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenox\Desktop\cookie-clicker-2.0\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4170560F-5A76-4A5A-94D2-9000A5EF1101}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CE78A21F-BF82-4C82-B303-1BA5B0A25C1B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8985" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8985" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -1541,7 +1541,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3</c:v>
@@ -1609,7 +1609,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>35.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2116,8 +2116,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="W26" sqref="W26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="W27" sqref="W27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3403,7 +3403,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>28</v>
+        <v>35.5</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3962,7 +3962,7 @@
       </c>
       <c r="D25" s="83">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E25" s="50">
         <v>2</v>
@@ -3986,7 +3986,9 @@
       <c r="T25" s="58"/>
       <c r="U25" s="59"/>
       <c r="V25" s="60"/>
-      <c r="W25" s="63"/>
+      <c r="W25" s="63">
+        <v>7</v>
+      </c>
       <c r="X25" s="63"/>
       <c r="Y25" s="63"/>
       <c r="Z25" s="57"/>
@@ -4039,7 +4041,7 @@
       </c>
       <c r="D26" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E26" s="50">
         <v>2</v>
@@ -4061,7 +4063,9 @@
       <c r="T26" s="58"/>
       <c r="U26" s="59"/>
       <c r="V26" s="60"/>
-      <c r="W26" s="63"/>
+      <c r="W26" s="63">
+        <v>0.5</v>
+      </c>
       <c r="X26" s="63"/>
       <c r="Y26" s="63"/>
       <c r="Z26" s="57"/>
@@ -4767,7 +4771,7 @@
       </c>
       <c r="C36" s="41">
         <f>SUM(C37:C38)</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="D36" s="42">
         <f>SUM(D37:D38)</f>
@@ -4841,7 +4845,7 @@
       </c>
       <c r="C37" s="49">
         <f>-W26</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="D37" s="83">
         <f>SUM(G37:BJ37)</f>
@@ -5271,11 +5275,11 @@
       </c>
       <c r="C43" s="37">
         <f>C39+C36+C31+C18+C14+C9</f>
-        <v>66</v>
+        <v>65.5</v>
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>38</v>
+        <v>45.5</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5345,7 +5349,7 @@
       </c>
       <c r="W43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="X43" s="39">
         <f t="shared" si="3"/>
@@ -5607,7 +5611,7 @@
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>
-        <v>28</v>
+        <v>35.5</v>
       </c>
       <c r="E5" s="82"/>
       <c r="F5" s="81"/>
@@ -5636,7 +5640,7 @@
       <c r="B7" s="96"/>
       <c r="C7" s="80">
         <f>Zeitplanung!C36</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="D7" s="80">
         <f>Zeitplanung!D36</f>

--- a/doc/CookieClicker-Zeitplanung.xlsx
+++ b/doc/CookieClicker-Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenox\Desktop\cookie-clicker-2.0\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CE78A21F-BF82-4C82-B303-1BA5B0A25C1B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1BC35C01-5A80-40B0-AB3D-E8C347485AD8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8985" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2116,8 +2116,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="W27" sqref="W27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/doc/CookieClicker-Zeitplanung.xlsx
+++ b/doc/CookieClicker-Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenox\Desktop\cookie-clicker-2.0\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1BC35C01-5A80-40B0-AB3D-E8C347485AD8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E3DDA6B6-1502-4653-97F7-187791763CA0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8985" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1609,7 +1609,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.5</c:v>
+                  <c:v>39.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2117,7 +2117,7 @@
   <dimension ref="A1:BJ43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="X25" sqref="X25"/>
+      <selection activeCell="X26" sqref="X26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3403,7 +3403,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>35.5</v>
+        <v>39.5</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3962,7 +3962,7 @@
       </c>
       <c r="D25" s="83">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E25" s="50">
         <v>2</v>
@@ -3989,7 +3989,9 @@
       <c r="W25" s="63">
         <v>7</v>
       </c>
-      <c r="X25" s="63"/>
+      <c r="X25" s="63">
+        <v>4</v>
+      </c>
       <c r="Y25" s="63"/>
       <c r="Z25" s="57"/>
       <c r="AA25" s="58"/>
@@ -4066,7 +4068,9 @@
       <c r="W26" s="63">
         <v>0.5</v>
       </c>
-      <c r="X26" s="63"/>
+      <c r="X26" s="63">
+        <v>0</v>
+      </c>
       <c r="Y26" s="63"/>
       <c r="Z26" s="57"/>
       <c r="AA26" s="58"/>
@@ -5279,7 +5283,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>45.5</v>
+        <v>49.5</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5353,7 +5357,7 @@
       </c>
       <c r="X43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y43" s="39">
         <f t="shared" si="3"/>
@@ -5611,7 +5615,7 @@
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>
-        <v>35.5</v>
+        <v>39.5</v>
       </c>
       <c r="E5" s="82"/>
       <c r="F5" s="81"/>

--- a/doc/CookieClicker-Zeitplanung.xlsx
+++ b/doc/CookieClicker-Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenox\Desktop\cookie-clicker-2.0\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E3DDA6B6-1502-4653-97F7-187791763CA0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3ED7EB98-2962-4E9A-A9A4-F8151D77468D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8985" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1609,7 +1609,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39.5</c:v>
+                  <c:v>50.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2116,8 +2116,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="X26" sqref="X26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Y29" sqref="Y29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3403,7 +3403,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>39.5</v>
+        <v>50.5</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3962,7 +3962,7 @@
       </c>
       <c r="D25" s="83">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E25" s="50">
         <v>2</v>
@@ -3990,7 +3990,7 @@
         <v>7</v>
       </c>
       <c r="X25" s="63">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y25" s="63"/>
       <c r="Z25" s="57"/>
@@ -4122,7 +4122,7 @@
       </c>
       <c r="D27" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E27" s="50">
         <v>2</v>
@@ -4145,8 +4145,12 @@
       <c r="U27" s="59"/>
       <c r="V27" s="60"/>
       <c r="W27" s="56"/>
-      <c r="X27" s="56"/>
-      <c r="Y27" s="56"/>
+      <c r="X27" s="56">
+        <v>2</v>
+      </c>
+      <c r="Y27" s="56">
+        <v>4</v>
+      </c>
       <c r="Z27" s="57"/>
       <c r="AA27" s="58"/>
       <c r="AB27" s="59"/>
@@ -4197,7 +4201,7 @@
       </c>
       <c r="D28" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E28" s="50">
         <v>3</v>
@@ -4221,7 +4225,9 @@
       <c r="V28" s="60"/>
       <c r="W28" s="56"/>
       <c r="X28" s="56"/>
-      <c r="Y28" s="56"/>
+      <c r="Y28" s="56">
+        <v>4</v>
+      </c>
       <c r="Z28" s="57"/>
       <c r="AA28" s="58"/>
       <c r="AB28" s="59"/>
@@ -5283,7 +5289,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>49.5</v>
+        <v>60.5</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5357,11 +5363,11 @@
       </c>
       <c r="X43" s="39">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Y43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z43" s="39">
         <f t="shared" si="3"/>
@@ -5615,7 +5621,7 @@
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>
-        <v>39.5</v>
+        <v>50.5</v>
       </c>
       <c r="E5" s="82"/>
       <c r="F5" s="81"/>

--- a/doc/CookieClicker-Zeitplanung.xlsx
+++ b/doc/CookieClicker-Zeitplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenox\Desktop\cookie-clicker-2.0\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3ED7EB98-2962-4E9A-A9A4-F8151D77468D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5A96E987-0E1D-45E1-945A-FC60DB91F11D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8985" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8985" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -1541,7 +1541,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3</c:v>
@@ -1609,16 +1609,16 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50.5</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1717,7 +1717,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1726,16 +1726,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>916078</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>33617</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>154078</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>201707</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>459442</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>69476</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>403412</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2116,8 +2116,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Y29" sqref="Y29"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AY40" sqref="AY40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3403,7 +3403,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>50.5</v>
+        <v>51</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3658,9 +3658,7 @@
       <c r="P21" s="63">
         <v>1</v>
       </c>
-      <c r="Q21" s="87">
-        <v>0</v>
-      </c>
+      <c r="Q21" s="87"/>
       <c r="R21" s="56"/>
       <c r="S21" s="57"/>
       <c r="T21" s="58"/>
@@ -3828,9 +3826,7 @@
       <c r="T23" s="58"/>
       <c r="U23" s="59"/>
       <c r="V23" s="60"/>
-      <c r="W23" s="87">
-        <v>0</v>
-      </c>
+      <c r="W23" s="87"/>
       <c r="X23" s="61"/>
       <c r="Y23" s="56"/>
       <c r="Z23" s="57"/>
@@ -3907,9 +3903,7 @@
       <c r="T24" s="58"/>
       <c r="U24" s="59"/>
       <c r="V24" s="60"/>
-      <c r="W24" s="63">
-        <v>0</v>
-      </c>
+      <c r="W24" s="63"/>
       <c r="X24" s="56"/>
       <c r="Y24" s="56"/>
       <c r="Z24" s="57"/>
@@ -4043,7 +4037,7 @@
       </c>
       <c r="D26" s="83">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E26" s="50">
         <v>2</v>
@@ -4066,11 +4060,9 @@
       <c r="U26" s="59"/>
       <c r="V26" s="60"/>
       <c r="W26" s="63">
-        <v>0.5</v>
-      </c>
-      <c r="X26" s="63">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="X26" s="63"/>
       <c r="Y26" s="63"/>
       <c r="Z26" s="57"/>
       <c r="AA26" s="58"/>
@@ -4423,7 +4415,7 @@
       </c>
       <c r="D31" s="42">
         <f>SUM(D32:D35)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E31" s="32"/>
       <c r="F31" s="31"/>
@@ -4642,7 +4634,7 @@
       </c>
       <c r="D34" s="83">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E34" s="50"/>
       <c r="F34" s="51"/>
@@ -4683,8 +4675,12 @@
       <c r="AO34" s="58"/>
       <c r="AP34" s="59"/>
       <c r="AQ34" s="60"/>
-      <c r="AR34" s="63"/>
-      <c r="AS34" s="63"/>
+      <c r="AR34" s="63">
+        <v>4</v>
+      </c>
+      <c r="AS34" s="63">
+        <v>4</v>
+      </c>
       <c r="AT34" s="55"/>
       <c r="AU34" s="57"/>
       <c r="AV34" s="58"/>
@@ -4781,7 +4777,7 @@
       </c>
       <c r="C36" s="41">
         <f>SUM(C37:C38)</f>
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="D36" s="42">
         <f>SUM(D37:D38)</f>
@@ -4854,8 +4850,7 @@
         <v>27</v>
       </c>
       <c r="C37" s="49">
-        <f>-W26</f>
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="D37" s="83">
         <f>SUM(G37:BJ37)</f>
@@ -5002,7 +4997,7 @@
       </c>
       <c r="D39" s="42">
         <f>SUM(D40:D42)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E39" s="32"/>
       <c r="F39" s="31"/>
@@ -5075,7 +5070,7 @@
       </c>
       <c r="D40" s="83">
         <f>SUM(G40:BJ40)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E40" s="50"/>
       <c r="F40" s="51"/>
@@ -5116,8 +5111,12 @@
       <c r="AO40" s="58"/>
       <c r="AP40" s="53"/>
       <c r="AQ40" s="54"/>
-      <c r="AR40" s="55"/>
-      <c r="AS40" s="63"/>
+      <c r="AR40" s="55">
+        <v>4</v>
+      </c>
+      <c r="AS40" s="63">
+        <v>2</v>
+      </c>
       <c r="AT40" s="55"/>
       <c r="AU40" s="57"/>
       <c r="AV40" s="58"/>
@@ -5148,7 +5147,7 @@
       </c>
       <c r="D41" s="83">
         <f t="shared" ref="D41:D42" si="2">SUM(G41:BJ41)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E41" s="50"/>
       <c r="F41" s="51"/>
@@ -5190,7 +5189,9 @@
       <c r="AP41" s="59"/>
       <c r="AQ41" s="60"/>
       <c r="AR41" s="55"/>
-      <c r="AS41" s="63"/>
+      <c r="AS41" s="63">
+        <v>2</v>
+      </c>
       <c r="AT41" s="55"/>
       <c r="AU41" s="57"/>
       <c r="AV41" s="58"/>
@@ -5285,11 +5286,11 @@
       </c>
       <c r="C43" s="37">
         <f>C39+C36+C31+C18+C14+C9</f>
-        <v>65.5</v>
+        <v>66</v>
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>60.5</v>
+        <v>77</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5359,7 +5360,7 @@
       </c>
       <c r="W43" s="39">
         <f t="shared" si="3"/>
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X43" s="39">
         <f t="shared" si="3"/>
@@ -5443,11 +5444,11 @@
       </c>
       <c r="AR43" s="39">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AS43" s="39">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AT43" s="39">
         <f t="shared" si="4"/>
@@ -5549,8 +5550,8 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5621,7 +5622,7 @@
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>
-        <v>50.5</v>
+        <v>51</v>
       </c>
       <c r="E5" s="82"/>
       <c r="F5" s="81"/>
@@ -5638,7 +5639,7 @@
       </c>
       <c r="D6" s="80">
         <f>Zeitplanung!D31</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F6" s="81"/>
     </row>
@@ -5650,7 +5651,7 @@
       <c r="B7" s="96"/>
       <c r="C7" s="80">
         <f>Zeitplanung!C36</f>
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="D7" s="80">
         <f>Zeitplanung!D36</f>
@@ -5670,7 +5671,7 @@
       </c>
       <c r="D8" s="80">
         <f>Zeitplanung!D39</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F8" s="81"/>
     </row>
@@ -5686,7 +5687,7 @@
     <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="56" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>